--- a/ironhack/data_analysis/scores/phase2-final-score.xlsx
+++ b/ironhack/data_analysis/scores/phase2-final-score.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chsiang\Desktop\Submission 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Programming/Workspace/Workspace/PythonPractice/ironhack/data_analysis/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25420" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -95,18 +95,12 @@
     <t>li1837@purdue.edu</t>
   </si>
   <si>
-    <t> Jiexin Duan</t>
-  </si>
-  <si>
     <t>duan32</t>
   </si>
   <si>
     <t>duan32@purdue.edu</t>
   </si>
   <si>
-    <t> Siyuan Sheng</t>
-  </si>
-  <si>
     <t>ssheng2013</t>
   </si>
   <si>
@@ -291,6 +285,12 @@
   </si>
   <si>
     <t>opendigital@purdue.edu</t>
+  </si>
+  <si>
+    <t>Jiexin Duan</t>
+  </si>
+  <si>
+    <t>Siyuan Sheng</t>
   </si>
 </sst>
 </file>
@@ -744,34 +744,34 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
-    <col min="11" max="12" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="12" width="24.33203125" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" hidden="1" customWidth="1"/>
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="6" customWidth="1"/>
+    <col min="22" max="22" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="I1" s="35" t="s">
         <v>0</v>
       </c>
@@ -787,7 +787,7 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -847,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -929,18 +929,18 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>62.5</v>
@@ -1011,18 +1011,18 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>62.5</v>
@@ -1093,18 +1093,18 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>61.5</v>
@@ -1175,18 +1175,18 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="14">
         <v>50</v>
@@ -1257,18 +1257,18 @@
         <v>0.52300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" s="14">
         <v>62.5</v>
@@ -1339,18 +1339,18 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>62.5</v>
@@ -1421,18 +1421,18 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1503,18 +1503,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="24">
         <v>1</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="24">
         <v>37.5</v>
@@ -1585,18 +1585,18 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1667,18 +1667,18 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>75</v>
@@ -1749,18 +1749,18 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="14">
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="14">
         <v>12.5</v>
@@ -1831,18 +1831,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="14">
         <v>1</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" s="14">
         <v>12.5</v>
@@ -1913,18 +1913,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="14">
         <v>1</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="14">
         <v>12.5</v>
@@ -1995,9 +1995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="8">
         <v>29835738829</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>62.5</v>
@@ -2077,18 +2077,18 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>12.5</v>
@@ -2159,18 +2159,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="19">
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="19">
         <v>50</v>
@@ -2241,18 +2241,18 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>87.5</v>
@@ -2323,18 +2323,18 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" s="24">
         <v>1</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="24">
         <v>75</v>
@@ -2405,18 +2405,18 @@
         <v>0.71399999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="14">
         <v>1</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="14">
         <v>12.5</v>
@@ -2487,18 +2487,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="14">
         <v>1</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="14">
         <v>12.5</v>
@@ -2569,15 +2569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>83</v>
       </c>
       <c r="E24" s="29">
         <v>85.5</v>
@@ -2648,9 +2648,9 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2694,9 +2694,9 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2740,7 +2740,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E28">
         <f>_xlfn.QUARTILE.INC(E3:E24,1)</f>
         <v>18.75</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E29">
         <f>_xlfn.QUARTILE.INC(E3:E24,2)</f>
         <v>62.5</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E30">
         <f>_xlfn.QUARTILE.INC(E3:E24,3)</f>
         <v>71.875</v>
@@ -2794,7 +2794,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="E31">
         <f>_xlfn.QUARTILE.INC(E3:E24,4)</f>
         <v>100</v>
@@ -2812,15 +2812,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="13">
         <v>0</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
